--- a/sprint 4/01-10-2021/03_Product_Backlog.xlsx
+++ b/sprint 4/01-10-2021/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\sprint 4\01-10-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D76F0-02EB-4305-977F-A6EB2FA65900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06ADEB9-6054-4436-AE03-2D6D976CA4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
@@ -5167,7 +5167,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
